--- a/Top Performer.xlsx
+++ b/Top Performer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Top 10 Figures last 3M %</t>
+          <t>Top 5 Figures last 3M %</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Top 10 Figures last 6M %</t>
+          <t>Top 5 Figures last 6M %</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Top 10 Figures last 12M %</t>
+          <t>Top 5 Figures last 12M %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Current Prices USD</t>
+          <t>Current Prices</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Std Dev of Prices USD</t>
+          <t>Std Dev of Prices</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Std Dev of Returns %</t>
+          <t>Std Dev of Returns</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -496,13 +496,13 @@
         <v>73.30000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>15.54</v>
+        <v>15.53999996185303</v>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.566986765747263</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>0.1709049928626147</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -517,29 +517,29 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.40000000000001</v>
+        <v>38.1</v>
       </c>
       <c r="C3" t="n">
-        <v>80.09999999999999</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>160.8</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>217.25</v>
+        <v>125</v>
       </c>
       <c r="F3" t="n">
-        <v>38.77</v>
+        <v>20.40054498625789</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>0.1546396965406982</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -551,32 +551,32 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>DBK.DE</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.8</v>
+        <v>38.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>37.1</v>
+        <v>134.4</v>
       </c>
       <c r="D4" t="n">
-        <v>65.39999999999999</v>
+        <v>189.9</v>
       </c>
       <c r="E4" t="n">
-        <v>15.23</v>
+        <v>1096.329956054688</v>
       </c>
       <c r="F4" t="n">
-        <v>2.03</v>
+        <v>202.1702004063008</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>0.3155066991288488</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -585,32 +585,32 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.1</v>
+        <v>29.8</v>
       </c>
       <c r="C5" t="n">
-        <v>32.49999999999999</v>
+        <v>59.60000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>65.39999999999999</v>
+        <v>84.00000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>199.26</v>
+        <v>204.0500030517578</v>
       </c>
       <c r="F5" t="n">
-        <v>24.79</v>
+        <v>27.22557888489536</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>0.1726579629699236</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -619,205 +619,35 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>SMHN.DE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.1</v>
+        <v>42.2</v>
       </c>
       <c r="C6" t="n">
-        <v>35.40000000000001</v>
+        <v>104.9</v>
       </c>
       <c r="D6" t="n">
-        <v>45.2</v>
+        <v>122.4</v>
       </c>
       <c r="E6" t="n">
-        <v>456.52</v>
+        <v>54.59999847412109</v>
       </c>
       <c r="F6" t="n">
-        <v>45.64</v>
+        <v>9.875528433584119</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>0.3555514075228872</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>MU</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>125</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>NVDA</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>38.59999999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>134.4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1096.33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>202.17</v>
-      </c>
-      <c r="G8" t="n">
-        <v>32</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>QCOM</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>59.60000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>84.00000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>204.05</v>
-      </c>
-      <c r="F9" t="n">
-        <v>27.23</v>
-      </c>
-      <c r="G9" t="n">
-        <v>17</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RHM.DE</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>25.89999999999999</v>
-      </c>
-      <c r="C10" t="n">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>527.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>106.19</v>
-      </c>
-      <c r="G10" t="n">
-        <v>28</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>SMHN.DE</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>122.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>36</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
